--- a/pred_ohlcv/54_21/2019-10-29 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 XLM ohlcv.xlsx
@@ -2992,7 +2992,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>17071876.54184152</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>17070476.54184152</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>17070476.54184152</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>17080052.35624152</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>17081252.35624152</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>17084599.53834152</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>17084599.53834152</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>17083464.91084152</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>17084050.34584152</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>12551238.3667595</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>12551238.3667595</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>12556807.01383782</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>12556807.01383782</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>12573611.05693782</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>11184653.85123782</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>12436653.85123782</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>12436653.85123782</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>16437250.57803782</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>16437151.30483782</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3020778.209533513</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3103596.004281003</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3101429.426581004</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3106550.551381004</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>3106550.551381004</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3142328.229781004</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3152328.229781004</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>3747284.373381004</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>3750356.402381004</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>3910305.743481004</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3825204.788881004</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3772992.698181004</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3770210.255581004</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>3809327.656732284</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>3807943.998132283</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>3586513.830232284</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>3603227.631732284</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>3603227.631732284</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>3643687.854682853</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>3639424.854682853</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>3639424.854682853</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 XLM ohlcv.xlsx
@@ -8790,7 +8790,7 @@
         <v>12573611.05693782</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>16437250.57803782</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>16437151.30483782</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3021172.936133513</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3021172.936133513</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3020778.209533513</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3028637.202581003</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3103596.004281003</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3101429.426581004</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3106550.551381004</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>3106550.551381004</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3142328.229781004</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3152328.229781004</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3152328.229781004</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3179324.579581004</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3270583.269081003</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3270583.269081003</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3270583.269081003</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>4233314.300381004</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>4233314.300381004</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>3747284.373381004</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>3750356.402381004</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>3910305.743481004</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3825204.788881004</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3772992.698181004</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3775039.390081004</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3770210.255581004</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3972115.426281004</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3960311.401381004</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3960311.401381004</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3673360.945081003</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3724250.796481004</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>3810846.118481004</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>3810846.118481004</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>3742596.288281003</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>3742596.288281003</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>4064564.503581003</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>3979964.503581003</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3768487.164481003</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3713651.714881003</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>3713661.714881003</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3804972.228781004</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3804658.013181003</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3804658.013181003</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>3820518.652081003</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3820518.652081003</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>3795685.652081003</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>3797685.652081003</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>3783574.630881004</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>3783574.630881004</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>3788874.630881004</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>3787312.972381004</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>3787947.490147494</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>3784876.907723134</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3782462.176923134</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3782462.176923134</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3740092.681923134</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>3740092.681923134</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>3740415.515468234</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>3768752.583568234</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>3767269.165568233</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>3735038.986468234</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>3681329.678068234</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>3686916.099068234</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>3697304.752668234</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>3697304.752668234</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>3697304.752668234</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>3697304.752668234</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>3785645.433868234</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>3788481.681032284</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>3807943.998132283</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>3807943.998132283</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>3805486.848732283</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3805486.848732283</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3801779.848732283</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3801779.848732283</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3801510.435132283</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>3801510.435132283</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>3778426.711732283</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>3778426.711732283</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>3612458.900832283</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>3608031.571332283</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>3591821.998232283</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>3583733.890932283</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>3587601.373632283</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>3587625.342632283</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>3587625.342632283</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>3587625.342632283</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>3586963.938532284</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>3589146.917232283</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
